--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Documents\IPR FINAL PROJECT\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A462DD2-F7FF-4764-9617-67CDF05D1DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124F7FD-9D0A-47F0-97F0-F7FA4641442C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CADC2D1D-8B23-4357-9FC0-8D8141BD062B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CADC2D1D-8B23-4357-9FC0-8D8141BD062B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Word</t>
   </si>
@@ -47,10 +36,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>xin chaof</t>
-  </si>
-  <si>
-    <t>hall</t>
+    <t>xin chào</t>
   </si>
 </sst>
 </file>
@@ -421,26 +407,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF0504F-2C71-4D00-84CC-5A309BDB6F74}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
